--- a/biology/Botanique/Andromède_à_feuilles_de_polium/Andromède_à_feuilles_de_polium.xlsx
+++ b/biology/Botanique/Andromède_à_feuilles_de_polium/Andromède_à_feuilles_de_polium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Androm%C3%A8de_%C3%A0_feuilles_de_polium</t>
+          <t>Andromède_à_feuilles_de_polium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Andromède (Andromeda polifolia) est une espèce de plantes à fleurs de la famille des Ericaceae. C'est la seule espèce encore acceptée actuellement dans le genre Andromeda (genre qui contenait jadis plusieurs autres espèces).
 C'est une plante ligneuse qui croît en moyenne montagne, en régions tempérées (Europe, Asie et Amérique). Les taxons américains sont rattachés à la variété glaucophylla (andromède glauque).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Androm%C3%A8de_%C3%A0_feuilles_de_polium</t>
+          <t>Andromède_à_feuilles_de_polium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'andromède est un petit sous-arbrisseau glabre qui peut atteindre 40 cm de haut. Les fleurs sont blanches, rosées voire roses. Elles sont réunies en ombelles de 2 à 8 fleurs. Le fruit est une capsule globuleuse.
 			Fleurs.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Androm%C3%A8de_%C3%A0_feuilles_de_polium</t>
+          <t>Andromède_à_feuilles_de_polium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce est inscrite sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain en Annexe I.
 Elle est également strictement protégée en Belgique et en Italie.</t>
